--- a/Perbaikan.xlsx
+++ b/Perbaikan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fakhrurraziandi/Sites/remake/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAE7F1B-E593-524A-9822-28D4D0D5F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +45,6 @@
 - Input Pencapaian</t>
   </si>
   <si>
-    <t>- Kolom nama otomatis muncul nama jika di ketik nomor customer/nama customer berdasarkan data k1 fokus individu dan apabila dipilih namanya muncul informasi pic 1 dan pic 2
-- Jenis Solusi muncul otomatis jika diketik atau dipilih
-- Status muncul otomatis jika diketik atau dipilih (Proses, Disburse, Cancel)
-- CE muncul otomatis jika dipilih atau diketik (Connect 5, Connect Kurang 5, Tidak Mau, Tidak Terhubung)
-- Apabila diklik simpan ternyata nama dan solusi yang telah diinput sudah pernah diinput sebelumnya muncul pesan/warning bahwa nama dengan solusi dpilih telah terinput sebelumnya</t>
-  </si>
-  <si>
     <t>- Data yang ditampilkan bisa diexport ke excel
 - Ditambah multifilter
 - Search tetap ada</t>
@@ -83,12 +82,54 @@
 - Search tetap ada
 - Potensi valas tidak bisa diimport</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>- Kolom nama otomatis muncul nama jika di ketik nomor customer/nama customer berdasarkan data k1 fokus individu dan apabila dipilih namanya muncul informasi pic 1 dan pic 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>- Jenis Solusi muncul otomatis jika diketik atau dipilih
+- Status muncul otomatis jika diketik atau dipilih (Proses, Disburse, Cancel)
+- CE muncul otomatis jika dipilih atau diketik (Connect 5, Connect Kurang 5, Tidak Mau, Tidak Terhubung)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Apabila diklik simpan ternyata nama dan solusi yang telah diinput sudah pernah diinput sebelumnya muncul pesan/warning bahwa nama dengan solusi dpilih telah terinput sebelumnya</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +152,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -156,9 +202,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -167,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -177,6 +223,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -225,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +307,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +359,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,71 +551,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -545,24 +628,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
